--- a/Resumen/reporte.xlsx
+++ b/Resumen/reporte.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>VINA DEL MAR</t>
   </si>
@@ -25,16 +25,7 @@
     <t>QUILPUE</t>
   </si>
   <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>PUERTO VARAS</t>
-  </si>
-  <si>
     <t>LOS ANDES</t>
-  </si>
-  <si>
-    <t>OVALLE</t>
   </si>
   <si>
     <t>CIUDAD</t>
@@ -472,13 +463,13 @@
   <sheetData>
     <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -486,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>9038299</v>
+        <v>255003000</v>
       </c>
       <c r="D6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -497,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>22469070</v>
+        <v>12440000</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -508,7 +499,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2">
-        <v>24000000</v>
+        <v>64253626</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -519,101 +510,68 @@
         <v>3</v>
       </c>
       <c r="C9" s="2">
-        <v>10000000</v>
+        <v>150190000</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2">
-        <v>55600001</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>40472800</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-    </row>
     <row r="23" spans="2:6">
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2">
-        <v>161580170</v>
+        <v>481886626</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F23" s="2">
-        <v>55600001</v>
+        <v>255003000</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C24" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F24" s="2">
-        <v>0</v>
+        <v>12440000</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F25" s="2">
-        <v>55600001</v>
+        <v>242563000</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Resumen/reporte.xlsx
+++ b/Resumen/reporte.xlsx
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>255003000</v>
+        <v>389123000</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="2">
-        <v>150190000</v>
+        <v>275286789</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -521,13 +521,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="2">
-        <v>481886626</v>
+        <v>741103415</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="2">
-        <v>255003000</v>
+        <v>389123000</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="2">
-        <v>242563000</v>
+        <v>376683000</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -571,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
